--- a/Metiers/metier_results_summary.xlsx
+++ b/Metiers/metier_results_summary.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">POL</t>
   </si>
   <si>
-    <t xml:space="preserve">BS</t>
+    <t xml:space="preserve">BALT</t>
   </si>
   <si>
     <t xml:space="preserve">GNS_DEF_110-156_0_0</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">OTB_DEF_&gt;=120_0_0</t>
   </si>
   <si>
-    <t xml:space="preserve">OTM_DEF_&lt;16_0_0</t>
+    <t xml:space="preserve">OTM_SPF_&lt;16_0_0</t>
   </si>
   <si>
     <t xml:space="preserve">LD</t>

--- a/Metiers/metier_results_summary.xlsx
+++ b/Metiers/metier_results_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -47,19 +47,22 @@
     <t xml:space="preserve">GNS_FWS_&gt;0_0_0</t>
   </si>
   <si>
-    <t xml:space="preserve">OTB_DEF_&gt;=105_1_120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTB_DEF_&gt;=120_0_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTM_SPF_&lt;16_0_0</t>
+    <t xml:space="preserve">OTB_DEF_105-115_1_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTB_DEF_115-120_3_115</t>
   </si>
   <si>
     <t xml:space="preserve">LD</t>
   </si>
   <si>
     <t xml:space="preserve">OTM_SPF_32-69_0_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTB_DWS_100-119_0_0</t>
   </si>
 </sst>
 </file>
@@ -518,17 +521,15 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
+      <c r="C7"/>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>4300</v>
+        <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>4685</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -536,17 +537,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8"/>
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -554,19 +557,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>18000</v>
+        <v>2900</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5085</v>
       </c>
     </row>
   </sheetData>

--- a/Metiers/metier_results_summary.xlsx
+++ b/Metiers/metier_results_summary.xlsx
@@ -485,13 +485,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>2596</v>
+        <v>2966</v>
       </c>
       <c r="F5" t="n">
-        <v>1611.2</v>
+        <v>2761.2</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">

--- a/Metiers/metier_results_summary.xlsx
+++ b/Metiers/metier_results_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">GNS_FWS_&gt;0_0_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIS_MIS_0_0_0</t>
   </si>
   <si>
     <t xml:space="preserve">OTB_DEF_105-115_1_120</t>
@@ -485,13 +488,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2966</v>
+        <v>320</v>
       </c>
       <c r="F5" t="n">
-        <v>2761.2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +508,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>180</v>
+        <v>2966</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2761.2</v>
       </c>
     </row>
     <row r="7">
@@ -521,15 +524,17 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="F7" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -537,10 +542,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -557,10 +562,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
         <v>4</v>

--- a/Metiers/metier_results_summary.xlsx
+++ b/Metiers/metier_results_summary.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">OTB_DEF_115-120_3_115</t>
   </si>
   <si>
-    <t xml:space="preserve">LD</t>
+    <t xml:space="preserve">LDF</t>
   </si>
   <si>
     <t xml:space="preserve">OTM_SPF_32-69_0_0</t>

--- a/Metiers/metier_results_summary.xlsx
+++ b/Metiers/metier_results_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -47,13 +47,22 @@
     <t xml:space="preserve">GNS_FWS_&gt;0_0_0</t>
   </si>
   <si>
-    <t xml:space="preserve">MIS_MIS_0_0_0</t>
+    <t xml:space="preserve">GNS_FWS_&gt;0_0_0*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLD_ANA_0_0_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIS_MIS_0_0_0*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTB_DEF_105-115_1_110</t>
   </si>
   <si>
     <t xml:space="preserve">OTB_DEF_105-115_1_120</t>
   </si>
   <si>
-    <t xml:space="preserve">OTB_DEF_115-120_3_115</t>
+    <t xml:space="preserve">OTB_DEF_&gt;=120_3_120</t>
   </si>
   <si>
     <t xml:space="preserve">LDF</t>
@@ -468,13 +477,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F4" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
@@ -488,13 +497,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="F5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
@@ -508,13 +517,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2966</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>2761.2</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7">
@@ -528,13 +537,13 @@
         <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -542,19 +551,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>18000</v>
+        <v>1270</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="9">
@@ -562,18 +571,78 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1696</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1611.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>180</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E12" t="n">
         <v>2900</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F12" t="n">
         <v>5085</v>
       </c>
     </row>

--- a/Metiers/metier_results_summary.xlsx
+++ b/Metiers/metier_results_summary.xlsx
@@ -47,22 +47,22 @@
     <t xml:space="preserve">GNS_FWS_&gt;0_0_0</t>
   </si>
   <si>
-    <t xml:space="preserve">GNS_FWS_&gt;0_0_0*</t>
-  </si>
-  <si>
     <t xml:space="preserve">LLD_ANA_0_0_0</t>
   </si>
   <si>
-    <t xml:space="preserve">MIS_MIS_0_0_0*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTB_DEF_105-115_1_110</t>
+    <t xml:space="preserve">LLS_DEF_0_0_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIS_MIS_0_0_0</t>
   </si>
   <si>
     <t xml:space="preserve">OTB_DEF_105-115_1_120</t>
   </si>
   <si>
     <t xml:space="preserve">OTB_DEF_&gt;=120_3_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTB_DEF_105-115_1_120</t>
   </si>
   <si>
     <t xml:space="preserve">LDF</t>
@@ -437,10 +437,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>280</v>
+        <v>1880</v>
       </c>
       <c r="F2" t="n">
         <v>560</v>
@@ -477,13 +477,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F4" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6">
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>1270</v>
+        <v>3066</v>
       </c>
       <c r="F8" t="n">
-        <v>1150</v>
+        <v>2761.2</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +580,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1696</v>
+        <v>180</v>
       </c>
       <c r="F9" t="n">
-        <v>1611.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -597,10 +597,10 @@
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>

--- a/Metiers/metier_results_summary.xlsx
+++ b/Metiers/metier_results_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">RCG</t>
   </si>
   <si>
-    <t xml:space="preserve">metier_level_6</t>
+    <t xml:space="preserve">metier_level_6_new</t>
   </si>
   <si>
     <t xml:space="preserve">n_count</t>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">LLD_ANA_0_0_0</t>
   </si>
   <si>
-    <t xml:space="preserve">LLS_DEF_0_0_0</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIS_MIS_0_0_0</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">NSEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTB_DWS_100-119_0_0</t>
   </si>
 </sst>
 </file>
@@ -437,13 +431,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>1880</v>
+        <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +471,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="F4" t="n">
-        <v>1400</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="5">
@@ -520,10 +514,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +531,13 @@
         <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>3066</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>2761.2</v>
       </c>
     </row>
     <row r="8">
@@ -557,13 +551,13 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>3066</v>
+        <v>180</v>
       </c>
       <c r="F8" t="n">
-        <v>2761.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -591,16 +585,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>600</v>
+        <v>18000</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -611,38 +605,18 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>18000</v>
+        <v>2900</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2900</v>
-      </c>
-      <c r="F12" t="n">
         <v>5085</v>
       </c>
     </row>

--- a/Metiers/metier_results_summary.xlsx
+++ b/Metiers/metier_results_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t xml:space="preserve">OTB_DEF_105-115_1_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTB_DEF_&gt;0_0_0</t>
   </si>
   <si>
     <t xml:space="preserve">OTB_DEF_&gt;=120_3_120</t>
@@ -551,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>180</v>
+        <v>1300</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -574,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -585,16 +588,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -605,18 +608,38 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>2900</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>5085</v>
       </c>
     </row>

--- a/Metiers/metier_results_summary.xlsx
+++ b/Metiers/metier_results_summary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -62,6 +62,9 @@
     <t xml:space="preserve">OTB_DEF_&gt;=120_3_120</t>
   </si>
   <si>
+    <t xml:space="preserve">OTB_FWS_&gt;0_0_0</t>
+  </si>
+  <si>
     <t xml:space="preserve">PTB_DEF_105-115_1_120</t>
   </si>
   <si>
@@ -72,12 +75,15 @@
   </si>
   <si>
     <t xml:space="preserve">NSEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTB_DWS_100-119_0_0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -396,12 +402,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -460,7 +466,7 @@
         <v>396.25</v>
       </c>
       <c r="F3" t="n">
-        <v>376.4375</v>
+        <v>376.44</v>
       </c>
     </row>
     <row r="4">
@@ -594,10 +600,10 @@
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -608,16 +614,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -628,18 +634,38 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>2900</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>5085</v>
       </c>
     </row>
